--- a/dataset_description.xlsx
+++ b/dataset_description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Desktop\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-AMD-OCT-paper-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8083FC-B67B-45C8-A684-CF24A3505AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D2E5F7-8BDD-486F-8F74-003DD348F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>Metadata element</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Value 7</t>
-  </si>
-  <si>
-    <t>Value 8</t>
   </si>
   <si>
     <t>Metadata Version</t>
@@ -314,9 +311,6 @@
   </si>
   <si>
     <t>Gasimov, Aydan</t>
-  </si>
-  <si>
-    <t>Lyu, Yichen</t>
   </si>
   <si>
     <t>Patel, Bhavesh</t>
@@ -1087,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1005"/>
+  <dimension ref="A1:J1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1101,9 +1095,10 @@
     <col min="4" max="4" width="25.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="7.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="58.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1134,22 +1129,19 @@
       <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29"/>
@@ -1157,20 +1149,19 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -1178,11 +1169,10 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
@@ -1193,20 +1183,19 @@
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
@@ -1214,20 +1203,19 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -1235,55 +1223,54 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="28"/>
@@ -1292,11 +1279,10 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1307,20 +1293,19 @@
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -1328,20 +1313,19 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -1349,20 +1333,19 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -1370,68 +1353,67 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="B16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="29"/>
@@ -1440,11 +1422,10 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -1455,145 +1436,135 @@
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>75</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>77</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>78</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>79</v>
       </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B20" s="23" t="str">
         <f>HYPERLINK("https://orcid.org/","ORCiD ID. If you don't have an ORCiD, we suggest you sign up for one.")</f>
         <v>ORCiD ID. If you don't have an ORCiD, we suggest you sign up for one.</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
         <v>84</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>85</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>86</v>
       </c>
-      <c r="J20" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K20" t="s">
+      <c r="B21" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="B22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H21" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="D22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
         <v>96</v>
       </c>
       <c r="J22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="K22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1604,68 +1575,67 @@
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="D24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="B25" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="C25" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="D25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="12" t="s">
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="17" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="C26" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="25" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B27" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="C27" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="12" t="s">
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -1676,14 +1646,13 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -1697,14 +1666,13 @@
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C30" s="12">
         <v>0</v>
@@ -1718,10 +1686,9 @@
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/dataset_description.xlsx
+++ b/dataset_description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-AMD-OCT-paper-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D2E5F7-8BDD-486F-8F74-003DD348F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF12495-73A8-46D8-8364-103D7D529B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>Metadata element</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>spinal cord</t>
-  </si>
-  <si>
-    <t>autonomic ganglion</t>
   </si>
   <si>
     <t xml:space="preserve">    Study approach</t>
@@ -1083,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1364,56 +1361,54 @@
       <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="29"/>
@@ -1425,7 +1420,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -1439,132 +1434,132 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>78</v>
-      </c>
-      <c r="J19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="23" t="str">
         <f>HYPERLINK("https://orcid.org/","ORCiD ID. If you don't have an ORCiD, we suggest you sign up for one.")</f>
         <v>ORCiD ID. If you don't have an ORCiD, we suggest you sign up for one.</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
         <v>82</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>83</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>84</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>85</v>
-      </c>
-      <c r="J20" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>90</v>
       </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" t="s">
-        <v>91</v>
-      </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>96</v>
-      </c>
-      <c r="J22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1578,64 +1573,64 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="C24" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>102</v>
       </c>
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="D26" t="s">
         <v>109</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" t="s">
         <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -1649,10 +1644,10 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -1669,10 +1664,10 @@
     </row>
     <row r="30" spans="1:10" ht="15.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="C30" s="12">
         <v>0</v>
